--- a/Отчеты/OLAP продажи по дням недели для Программы 28.12.2022 10.20.25.xlsx
+++ b/Отчеты/OLAP продажи по дням недели для Программы 28.12.2022 10.20.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CAF9B13-E982-4BD2-8847-2806CC11A7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013FADA-FEBE-44B8-858D-2E80569B740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>OLAP продажи по дням недели для Программы</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Гранд</t>
-  </si>
-  <si>
-    <t>Ленина</t>
   </si>
   <si>
     <t>Магазин</t>
@@ -240,20 +237,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +536,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,62 +550,59 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" customWidth="1"/>
+    <col min="7" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -618,7 +612,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -641,12 +635,11 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -673,13 +666,13 @@
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="7"/>
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,562 +697,535 @@
       <c r="U6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>4.5199999999999997E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>3.49E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="K7" s="2">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="K7" s="6">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="2">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="N7" s="2">
-        <v>0.13500000000000001</v>
+        <v>5.74E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>5.74E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>2.63E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="R7" s="2">
-        <v>4.4299999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="S7" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="T7" s="2">
-        <v>6.4199999999999993E-2</v>
+        <v>3.27E-2</v>
       </c>
       <c r="U7" s="2">
-        <v>3.27E-2</v>
-      </c>
-      <c r="V7" s="2">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="W7" s="3">
+      <c r="V7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2">
         <v>3.9E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>4.1700000000000001E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>3.0800000000000001E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="K8" s="2">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="K8" s="6">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2">
+        <v>0.126</v>
+      </c>
       <c r="N8" s="2">
-        <v>0.126</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>6.2899999999999998E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>2.5700000000000001E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>5.6800000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="R8" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="S8" s="2">
         <v>6.5100000000000005E-2</v>
       </c>
       <c r="T8" s="2">
-        <v>6.5100000000000005E-2</v>
+        <v>3.15E-2</v>
       </c>
       <c r="U8" s="2">
-        <v>3.15E-2</v>
-      </c>
-      <c r="V8" s="2">
         <v>5.28E-2</v>
       </c>
-      <c r="W8" s="3">
+      <c r="V8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="I9" s="2">
-        <v>3.7199999999999997E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K9" s="2">
         <v>7.51E-2</v>
       </c>
-      <c r="L9" s="8">
+      <c r="K9" s="6">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="2">
+        <v>0.13239999999999999</v>
+      </c>
       <c r="N9" s="2">
-        <v>0.13239999999999999</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>6.4199999999999993E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>3.1E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>5.6099999999999997E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>5.67E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="S9" s="2">
-        <v>6.7500000000000004E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="T9" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="U9" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="V9" s="2">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="W9" s="3">
+      <c r="V9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="I10" s="2">
-        <v>3.5900000000000001E-2</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="K10" s="2">
         <v>9.69E-2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="K10" s="6">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="2">
+        <v>0.1328</v>
+      </c>
       <c r="N10" s="2">
-        <v>0.1328</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>6.4500000000000002E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>5.3900000000000003E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>4.9599999999999998E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="S10" s="2">
-        <v>6.2399999999999997E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="T10" s="2">
-        <v>5.2900000000000003E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="U10" s="2">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="V10" s="2">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="W10" s="3">
+      <c r="V10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2">
         <v>3.56E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>4.2599999999999999E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="K11" s="2">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="L11" s="8">
+      <c r="K11" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="2">
+        <v>0.13159999999999999</v>
+      </c>
       <c r="N11" s="2">
-        <v>0.13159999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="O11" s="2">
-        <v>0.06</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="P11" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>5.4899999999999997E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="R11" s="2">
-        <v>3.9699999999999999E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="S11" s="2">
-        <v>7.2400000000000006E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="T11" s="2">
-        <v>5.0900000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="U11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V11" s="2">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="W11" s="3">
+      <c r="V11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2">
         <v>5.96E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2">
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="H12" s="2">
-        <v>4.8300000000000003E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>4.4900000000000002E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="K12" s="2">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="L12" s="8">
+      <c r="K12" s="6">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="2">
+        <v>0.1201</v>
+      </c>
       <c r="N12" s="2">
-        <v>0.1201</v>
+        <v>6.25E-2</v>
       </c>
       <c r="O12" s="2">
-        <v>6.25E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="P12" s="2">
-        <v>2.5899999999999999E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="Q12" s="2">
-        <v>5.3800000000000001E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="R12" s="2">
-        <v>4.3099999999999999E-2</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="S12" s="2">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="T12" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="W12" s="3">
+      <c r="V12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="H13" s="2">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3.61E-2</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="2">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5.67E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="S13" s="2">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="I13" s="2">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="L13" s="8">
-        <v>3.61E-2</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="2">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="O13" s="2">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="P13" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="R13" s="2">
-        <v>5.67E-2</v>
-      </c>
-      <c r="S13" s="2">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="T13" s="2">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="W13" s="3">
+      <c r="V13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="9">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="H14" s="4">
-        <v>4.3200000000000002E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>3.7900000000000003E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="J14" s="4">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="K14" s="4">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="K14" s="5">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4">
+        <v>0.12989999999999999</v>
+      </c>
       <c r="N14" s="4">
-        <v>0.12989999999999999</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="O14" s="4">
-        <v>6.0900000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="P14" s="4">
-        <v>2.9000000000000001E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="Q14" s="4">
-        <v>5.62E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="R14" s="4">
-        <v>4.82E-2</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="S14" s="4">
-        <v>6.8500000000000005E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="T14" s="4">
-        <v>5.6099999999999997E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="U14" s="4">
-        <v>2.23E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="V14" s="4">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="W14" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:U5"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:V5"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/Отчеты/OLAP продажи по дням недели для Программы 28.12.2022 10.20.25.xlsx
+++ b/Отчеты/OLAP продажи по дням недели для Программы 28.12.2022 10.20.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013FADA-FEBE-44B8-858D-2E80569B740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6F7323-9F34-48A6-8368-01F46CA9A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>OLAP продажи по дням недели для Программы</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Название ресторана: ИП Гордеева И. Е.</t>
   </si>
   <si>
-    <t>Период: с 28.11.2022 по 04.12.2022</t>
+    <t>Период: с 20.12.2022 по 26.12.2022</t>
   </si>
   <si>
     <t>Категория блюда</t>
@@ -58,6 +58,12 @@
     <t>Гранд</t>
   </si>
   <si>
+    <t>Крытый рынок</t>
+  </si>
+  <si>
+    <t>Ленина</t>
+  </si>
+  <si>
     <t>Магазин</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Фридриха 11</t>
-  </si>
-  <si>
-    <t>Чехова</t>
   </si>
   <si>
     <t>Энтузиастов</t>
@@ -237,20 +240,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,73 +539,76 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="0.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+    <col min="7" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -612,7 +618,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -635,11 +641,12 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,13 +673,13 @@
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="M6" s="7"/>
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
@@ -697,535 +704,566 @@
       <c r="U6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="2">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>3.49E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>4.1799999999999997E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="2">
-        <v>0.13500000000000001</v>
-      </c>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.95E-2</v>
+      </c>
+      <c r="L7" s="8">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="M7" s="8"/>
       <c r="N7" s="2">
-        <v>5.74E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>2.63E-2</v>
+        <v>0.1138</v>
       </c>
       <c r="P7" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="Q7" s="2">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="R7" s="2">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="R7" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
       <c r="S7" s="2">
-        <v>6.4199999999999993E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="T7" s="2">
-        <v>3.27E-2</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="U7" s="2">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="V7" s="3">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="V7" s="2">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="W7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6.54E-2</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="2">
+        <v>3.04E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.1197</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>5.11E-2</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.92E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="2">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.41E-2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4.07E-2</v>
+      </c>
+      <c r="T9" s="2">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="U9" s="2">
+        <v>4.65E-2</v>
+      </c>
+      <c r="V9" s="2">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="2">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.78E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>8.48E-2</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="2">
+        <v>3.04E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.1222</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="S10" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="T10" s="2">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="U10" s="2">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="C11" s="8"/>
+      <c r="D11" s="2">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="2">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.61E-2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="2">
+        <v>2.92E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.1173</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>5.79E-2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>5.79E-2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="2">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="2">
+        <v>3.73E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.1245</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="S12" s="2">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="U12" s="2">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2">
+        <v>3.61E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3.39E-2</v>
+      </c>
+      <c r="K13" s="2">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="I8" s="2">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="2">
-        <v>0.126</v>
-      </c>
-      <c r="N8" s="2">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>6.5100000000000005E-2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>6.5100000000000005E-2</v>
-      </c>
-      <c r="T8" s="2">
-        <v>3.15E-2</v>
-      </c>
-      <c r="U8" s="2">
-        <v>5.28E-2</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="L13" s="8">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="2">
+        <v>3.44E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>4.19E-2</v>
+      </c>
+      <c r="T13" s="2">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="U13" s="2">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="W13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>7.51E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="2">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="O9" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>5.6099999999999997E-2</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>5.67E-2</v>
-      </c>
-      <c r="R9" s="2">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="S9" s="2">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="T9" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="U9" s="2">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8.8300000000000003E-2</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>9.69E-2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="2">
-        <v>0.1328</v>
-      </c>
-      <c r="N10" s="2">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="P10" s="2">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="R10" s="2">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="S10" s="2">
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="T10" s="2">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="U10" s="2">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>8.4599999999999995E-2</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2">
-        <v>3.56E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="K11" s="6">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="2">
-        <v>0.13159999999999999</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="O11" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P11" s="2">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="R11" s="2">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U11" s="2">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="V11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2">
-        <v>5.96E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="K12" s="6">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="2">
-        <v>0.1201</v>
-      </c>
-      <c r="N12" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="O12" s="2">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="P12" s="2">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>7.85E-2</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="4">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3.44E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="4">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.121</v>
+      </c>
+      <c r="P14" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="Q12" s="2">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="R12" s="2">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="S12" s="2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>3.61E-2</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="2">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="O13" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="P13" s="2">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>5.67E-2</v>
-      </c>
-      <c r="R13" s="2">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="S13" s="2">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="V13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4">
-        <v>0.12989999999999999</v>
-      </c>
-      <c r="N14" s="4">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>5.62E-2</v>
-      </c>
       <c r="Q14" s="4">
-        <v>4.82E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="R14" s="4">
-        <v>6.8500000000000005E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="S14" s="4">
-        <v>5.6099999999999997E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="T14" s="4">
-        <v>2.23E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="U14" s="4">
-        <v>5.7099999999999998E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="V14" s="4">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="W14" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:U5"/>
-    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="W5:W6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:V5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
